--- a/Новая форма (Ответы).xlsx
+++ b/Новая форма (Ответы).xlsx
@@ -2426,7 +2426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2471,13 +2471,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2507,7 +2527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2523,6 +2543,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2745,7 +2770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20049,7 +20074,7 @@
       <c r="A133" s="3">
         <v>45185.914782581021</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="12">
         <v>56</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -20076,19 +20101,19 @@
       <c r="J133" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="K133" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="M133" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="N133" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O133" s="4" t="s">
+      <c r="K133" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="N133" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="O133" s="11" t="s">
         <v>696</v>
       </c>
       <c r="P133" s="4" t="s">
